--- a/frappe/core/doctype/data_import/test_data/test_xlsx_raw.xlsx
+++ b/frappe/core/doctype/data_import/test_data/test_xlsx_raw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">First Name</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">test001@gmail.com</t>
+    <t xml:space="preserve">test0010@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test2</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve">test002@gmail.com</t>
+    <t xml:space="preserve">test0020@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test3</t>
@@ -64,73 +64,7 @@
     <t xml:space="preserve">Tomar</t>
   </si>
   <si>
-    <t xml:space="preserve">test003@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test004@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solanki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test005@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test007@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaushik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test008@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rathi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test009@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test010@gmail.com</t>
+    <t xml:space="preserve">test0030@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -242,18 +176,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,125 +259,6 @@
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>9874103652</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>9852014789</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>9632587410</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>9638527410</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>8521479632</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>8547963214</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>8745632109</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/frappe/core/doctype/data_import/test_data/test_xlsx_raw.xlsx
+++ b/frappe/core/doctype/data_import/test_data/test_xlsx_raw.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">test0010@gmail.com</t>
+    <t xml:space="preserve">test0100@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test2</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Kumar</t>
   </si>
   <si>
-    <t xml:space="preserve">test0020@gmail.com</t>
+    <t xml:space="preserve">test0200@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test3</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Tomar</t>
   </si>
   <si>
-    <t xml:space="preserve">test0030@gmail.com</t>
+    <t xml:space="preserve">test0300@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -179,18 +179,18 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:11"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
